--- a/bank statement generator/bank_statements/statement_37.xlsx
+++ b/bank statement generator/bank_statements/statement_37.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 07.07.2025</t>
+          <t>KONTOSTAND AM 25.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>10.07.</t>
+          <t>26.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>11.07.</t>
+          <t>27.03.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 22653986</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>41,91-</t>
+          <t>24,87-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>12.07.</t>
+          <t>28.03.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>13.07.</t>
+          <t>29.03.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>AMAZON.DE MKTPLC EU RNAAEA</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>22,75-</t>
+          <t>233,90-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>16.07.</t>
+          <t>29.03.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>17.07.</t>
+          <t>30.03.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Schwabmünchen</t>
+          <t>BEITRAG Allianz SE K-57342728</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>39,85-</t>
+          <t>57,36-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>17.07.</t>
+          <t>02.04.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>18.07.</t>
+          <t>03.04.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./17.07 REWE RO</t>
+          <t>RECHNUNG VODAFONE GMBH 43123452</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>45,58-</t>
+          <t>41,95-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>18.07.</t>
+          <t>05.04.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>19.07.</t>
+          <t>06.04.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Bützow</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 40290511</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>39,11-</t>
+          <t>87,67-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>22.07.</t>
+          <t>08.04.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>23.07.</t>
+          <t>09.04.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 60683912</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>86,90-</t>
+          <t>50,06-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.07.2025</t>
+          <t>KONTOSTAND AM 12.04.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>276,10-</t>
+          <t>495,81-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 31.07.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 21.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
